--- a/VIC_3/input/pop_essential_2021_08_03.xlsx
+++ b/VIC_3/input/pop_essential_2021_08_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\CovidABM\NSW\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\CovidABM\VIC_3\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F51DA0-8AB4-4A28-9A11-A9D837E42CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4240F95-254B-4234-B29C-46EE5CB3AC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_essential_2007_bau" sheetId="1" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,14 +1258,14 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <f>IF(SUM(AD2:AG2) &gt;0,ROUND(AB2*(AD2*$Y$26+AE2*$Y$27+AF2*$Y$28+AG2*$Y$29)/SUM(AD2:AG2),0), 0)</f>
+        <f t="shared" ref="N2:N28" si="0">IF(SUM(AD2:AG2) &gt;0,ROUND(AB2*(AD2*$Y$26+AE2*$Y$27+AF2*$Y$28+AG2*$Y$29)/SUM(AD2:AG2),0), 0)</f>
         <v>62</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P27" si="0">IF(SUM(AD2:AG2) &gt;0,AC2*(AD2*$Z$26+AE2*$Z$27+AF2*$Z$28+AG2*$Z$29)/SUM(AD2:AG2),1)</f>
+        <f t="shared" ref="P2:P27" si="1">IF(SUM(AD2:AG2) &gt;0,AC2*(AD2*$Z$26+AE2*$Z$27+AF2*$Z$28+AG2*$Z$29)/SUM(AD2:AG2),1)</f>
         <v>2.311666666666667</v>
       </c>
       <c r="Q2">
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <f t="shared" ref="AE2:AE28" si="1">IF(B2&gt;50,1,0)</f>
+        <f t="shared" ref="AE2:AE28" si="2">IF(B2&gt;50,1,0)</f>
         <v>1</v>
       </c>
       <c r="AF2">
@@ -1315,11 +1315,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI8" si="2">N2</f>
+        <f t="shared" ref="AI2:AI8" si="3">N2</f>
         <v>62</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ8" si="3">(P2-1)/P2*N2</f>
+        <f t="shared" ref="AJ2:AJ8" si="4">(P2-1)/P2*N2</f>
         <v>35.179524152847875</v>
       </c>
     </row>
@@ -1364,14 +1364,14 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f>IF(SUM(AD3:AG3) &gt;0,ROUND(AB3*(AD3*$Y$26+AE3*$Y$27+AF3*$Y$28+AG3*$Y$29)/SUM(AD3:AG3),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0538333333333334</v>
       </c>
       <c r="Q3">
@@ -1405,27 +1405,27 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD28" si="4">IF(B3&gt;20,1,0)</f>
+        <f t="shared" ref="AD3:AD28" si="5">IF(B3&gt;20,1,0)</f>
         <v>1</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF28" si="5">IF(B3&gt;70,1,0)</f>
+        <f t="shared" ref="AF3:AF28" si="6">IF(B3&gt;70,1,0)</f>
         <v>1</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG28" si="6">IF(U3="Top essential workers",1,0)</f>
+        <f t="shared" ref="AG3:AG28" si="7">IF(U3="Top essential workers",1,0)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.433226000109151</v>
       </c>
     </row>
@@ -1470,14 +1470,14 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f>IF(SUM(AD4:AG4) &gt;0,ROUND(AB4*(AD4*$Y$26+AE4*$Y$27+AF4*$Y$28+AG4*$Y$29)/SUM(AD4:AG4),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5862500000000002</v>
       </c>
       <c r="Q4">
@@ -1508,27 +1508,27 @@
         <v>1.35</v>
       </c>
       <c r="AD4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1573,14 +1573,14 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <f>IF(SUM(AD5:AG5) &gt;0,ROUND(AB5*(AD5*$Y$26+AE5*$Y$27+AF5*$Y$28+AG5*$Y$29)/SUM(AD5:AG5),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.68025</v>
       </c>
       <c r="Q5">
@@ -1615,19 +1615,19 @@
         <v>1.43</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6194018747210237</v>
       </c>
     </row>
@@ -1680,14 +1680,14 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IF(SUM(AD6:AG6) &gt;0,ROUND(AB6*(AD6*$Y$26+AE6*$Y$27+AF6*$Y$28+AG6*$Y$29)/SUM(AD6:AG6),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5862500000000002</v>
       </c>
       <c r="Q6">
@@ -1722,27 +1722,27 @@
         <v>1.35</v>
       </c>
       <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="1">
-        <f t="shared" si="3"/>
         <v>2.5870764381402687</v>
       </c>
     </row>
@@ -1787,14 +1787,14 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF(SUM(AD7:AG7) &gt;0,ROUND(AB7*(AD7*$Y$26+AE7*$Y$27+AF7*$Y$28+AG7*$Y$29)/SUM(AD7:AG7),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.68025</v>
       </c>
       <c r="Q7">
@@ -1822,27 +1822,27 @@
         <v>1.43</v>
       </c>
       <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="AJ7" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="3"/>
         <v>74.492486237167086</v>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IF(SUM(AD8:AG8) &gt;0,ROUND(AB8*(AD8*$Y$26+AE8*$Y$27+AF8*$Y$28+AG8*$Y$29)/SUM(AD8:AG8),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.68025</v>
       </c>
       <c r="Q8">
@@ -1922,27 +1922,27 @@
         <v>1.43</v>
       </c>
       <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AJ8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AJ8" s="1">
-        <f t="shared" si="3"/>
         <v>8.9067103109656305</v>
       </c>
     </row>
@@ -1987,14 +1987,14 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IF(SUM(AD9:AG9) &gt;0,ROUND(AB9*(AD9*$Y$26+AE9*$Y$27+AF9*$Y$28+AG9*$Y$29)/SUM(AD9:AG9),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1656666666666671</v>
       </c>
       <c r="Q9">
@@ -2026,27 +2026,27 @@
         <v>1.78</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" ref="AI9:AI28" si="7">N9</f>
+        <f t="shared" ref="AI9:AI28" si="8">N9</f>
         <v>145</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" ref="AJ9:AJ28" si="8">(P9-1)/P9*N9</f>
+        <f t="shared" ref="AJ9:AJ28" si="9">(P9-1)/P9*N9</f>
         <v>78.046021240572585</v>
       </c>
     </row>
@@ -2091,14 +2091,14 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IF(SUM(AD10:AG10) &gt;0,ROUND(AB10*(AD10*$Y$26+AE10*$Y$27+AF10*$Y$28+AG10*$Y$29)/SUM(AD10:AG10),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5862500000000002</v>
       </c>
       <c r="Q10">
@@ -2130,27 +2130,27 @@
         <v>1.35</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.914105594956663</v>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f>IF(SUM(AD11:AG11) &gt;0,ROUND(AB11*(AD11*$Y$26+AE11*$Y$27+AF11*$Y$28+AG11*$Y$29)/SUM(AD11:AG11),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5862500000000002</v>
       </c>
       <c r="Q11">
@@ -2233,27 +2233,27 @@
         <v>1.35</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.892828999211986</v>
       </c>
     </row>
@@ -2301,14 +2301,14 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f>IF(SUM(AD12:AG12) &gt;0,ROUND(AB12*(AD12*$Y$26+AE12*$Y$27+AF12*$Y$28+AG12*$Y$29)/SUM(AD12:AG12),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.61</v>
       </c>
       <c r="Q12">
@@ -2339,27 +2339,27 @@
         <v>2.9</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.674329501915707</v>
       </c>
     </row>
@@ -2407,14 +2407,14 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IF(SUM(AD13:AG13) &gt;0,ROUND(AB13*(AD13*$Y$26+AE13*$Y$27+AF13*$Y$28+AG13*$Y$29)/SUM(AD13:AG13),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.61</v>
       </c>
       <c r="Q13">
@@ -2448,27 +2448,27 @@
         <v>2.9</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18.505747126436781</v>
       </c>
     </row>
@@ -2516,14 +2516,14 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <f>IF(SUM(AD14:AG14) &gt;0,ROUND(AB14*(AD14*$Y$26+AE14*$Y$27+AF14*$Y$28+AG14*$Y$29)/SUM(AD14:AG14),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.61</v>
       </c>
       <c r="Q14">
@@ -2560,27 +2560,27 @@
         <v>2.9</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.739463601532567</v>
       </c>
     </row>
@@ -2628,14 +2628,14 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IF(SUM(AD15:AG15) &gt;0,ROUND(AB15*(AD15*$Y$26+AE15*$Y$27+AF15*$Y$28+AG15*$Y$29)/SUM(AD15:AG15),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5840000000000001</v>
       </c>
       <c r="Q15">
@@ -2673,27 +2673,27 @@
         <v>1.98</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6868686868686873</v>
       </c>
     </row>
@@ -2741,14 +2741,14 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f>IF(SUM(AD16:AG16) &gt;0,ROUND(AB16*(AD16*$Y$26+AE16*$Y$27+AF16*$Y$28+AG16*$Y$29)/SUM(AD16:AG16),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6320000000000001</v>
       </c>
       <c r="Q16">
@@ -2782,27 +2782,27 @@
         <v>2.04</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1960784313725501</v>
       </c>
     </row>
@@ -2850,14 +2850,14 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f>IF(SUM(AD17:AG17) &gt;0,ROUND(AB17*(AD17*$Y$26+AE17*$Y$27+AF17*$Y$28+AG17*$Y$29)/SUM(AD17:AG17),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.64</v>
       </c>
       <c r="Q17">
@@ -2889,27 +2889,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.9756097560975601</v>
       </c>
     </row>
@@ -2957,14 +2957,14 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <f>IF(SUM(AD18:AG18) &gt;0,ROUND(AB18*(AD18*$Y$26+AE18*$Y$27+AF18*$Y$28+AG18*$Y$29)/SUM(AD18:AG18),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5862500000000002</v>
       </c>
       <c r="Q18">
@@ -2991,27 +2991,27 @@
         <v>1.35</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8045705279747848</v>
       </c>
     </row>
@@ -3059,14 +3059,14 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(SUM(AD19:AG19) &gt;0,ROUND(AB19*(AD19*$Y$26+AE19*$Y$27+AF19*$Y$28+AG19*$Y$29)/SUM(AD19:AG19),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5840000000000001</v>
       </c>
       <c r="Q19">
@@ -3100,27 +3100,27 @@
         <v>1.98</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3168,14 +3168,14 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(SUM(AD20:AG20) &gt;0,ROUND(AB20*(AD20*$Y$26+AE20*$Y$27+AF20*$Y$28+AG20*$Y$29)/SUM(AD20:AG20),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6320000000000001</v>
       </c>
       <c r="Q20">
@@ -3211,27 +3211,27 @@
         <v>2.04</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3279,14 +3279,14 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(SUM(AD21:AG21) &gt;0,ROUND(AB21*(AD21*$Y$26+AE21*$Y$27+AF21*$Y$28+AG21*$Y$29)/SUM(AD21:AG21),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.64</v>
       </c>
       <c r="Q21">
@@ -3322,27 +3322,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.512195121951219</v>
       </c>
     </row>
@@ -3390,14 +3390,14 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(SUM(AD22:AG22) &gt;0,ROUND(AB22*(AD22*$Y$26+AE22*$Y$27+AF22*$Y$28+AG22*$Y$29)/SUM(AD22:AG22),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="Q22">
@@ -3433,27 +3433,27 @@
         <v>2.9</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8275862068965507</v>
       </c>
     </row>
@@ -3501,14 +3501,14 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(SUM(AD23:AG23) &gt;0,ROUND(AB23*(AD23*$Y$26+AE23*$Y$27+AF23*$Y$28+AG23*$Y$29)/SUM(AD23:AG23),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="Q23">
@@ -3544,27 +3544,27 @@
         <v>2.9</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8275862068965507</v>
       </c>
     </row>
@@ -3612,14 +3612,14 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(SUM(AD24:AG24) &gt;0,ROUND(AB24*(AD24*$Y$26+AE24*$Y$27+AF24*$Y$28+AG24*$Y$29)/SUM(AD24:AG24),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="Q24">
@@ -3646,27 +3646,27 @@
         <v>2.9</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8448275862068959</v>
       </c>
     </row>
@@ -3714,14 +3714,14 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(SUM(AD25:AG25) &gt;0,ROUND(AB25*(AD25*$Y$26+AE25*$Y$27+AF25*$Y$28+AG25*$Y$29)/SUM(AD25:AG25),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6555</v>
       </c>
       <c r="Q25">
@@ -3755,27 +3755,27 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4936923366597625</v>
       </c>
     </row>
@@ -3820,14 +3820,14 @@
         <v>2</v>
       </c>
       <c r="N26">
-        <f>IF(SUM(AD26:AG26) &gt;0,ROUND(AB26*(AD26*$Y$26+AE26*$Y$27+AF26*$Y$28+AG26*$Y$29)/SUM(AD26:AG26),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q26">
@@ -3861,27 +3861,27 @@
         <v>1</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3926,14 +3926,14 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <f>IF(SUM(AD27:AG27) &gt;0,ROUND(AB27*(AD27*$Y$26+AE27*$Y$27+AF27*$Y$28+AG27*$Y$29)/SUM(AD27:AG27),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q27">
@@ -3967,27 +3967,27 @@
         <v>1.04</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4032,14 +4032,14 @@
         <v>2</v>
       </c>
       <c r="N28">
-        <f>IF(SUM(AD28:AG28) &gt;0,ROUND(AB28*(AD28*$Y$26+AE28*$Y$27+AF28*$Y$28+AG28*$Y$29)/SUM(AD28:AG28),0), 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P27:P28" si="9">IF(SUM(AD28:AG28) &gt;0,AC28*(AD28*$Z$26+AE28*$Z$27+AF28*$Z$28+AG28*$Z$29)/SUM(AD28:AG28),1)</f>
+        <f t="shared" ref="P28" si="10">IF(SUM(AD28:AG28) &gt;0,AC28*(AD28*$Z$26+AE28*$Z$27+AF28*$Z$28+AG28*$Z$29)/SUM(AD28:AG28),1)</f>
         <v>1</v>
       </c>
       <c r="Q28">
@@ -4073,27 +4073,27 @@
         <v>1</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
